--- a/ExperimentosGissella.xlsx
+++ b/ExperimentosGissella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gissella_BejaranoNic\Documents\PeruvianSignLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31634CD1-B202-4EAE-90E8-F1AF944BA314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF60191-A213-4179-8C02-E6C254571623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B664CC47-0CDC-4C29-8327-B2D4CD6615DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>10nouns</t>
   </si>
@@ -60,9 +60,6 @@
     <t>DropOut</t>
   </si>
   <si>
-    <t>TestAcc</t>
-  </si>
-  <si>
     <t>e-5</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>Chameleon</t>
+  </si>
+  <si>
+    <t>TestAcc (134 signs)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Analysis by sign and by subject</t>
   </si>
 </sst>
 </file>
@@ -112,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E7DA79-1D56-4C42-82B7-A2573CE01401}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,15 +475,15 @@
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -485,33 +498,36 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -523,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>40</v>
@@ -553,9 +569,9 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -567,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -597,9 +613,9 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -611,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -641,9 +657,9 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -655,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -681,13 +697,16 @@
       <c r="M5">
         <v>0.99380000000000002</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>0.6522</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <v>0.23880000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -699,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -729,9 +748,9 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -743,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -773,9 +792,9 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -787,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -813,13 +832,16 @@
       <c r="M8">
         <v>0.93140000000000001</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0.6522</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -831,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -861,9 +883,9 @@
         <v>0.56520000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -875,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -905,9 +927,9 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -919,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -945,13 +967,16 @@
       <c r="M11">
         <v>0.83130000000000004</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>0.69569999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -963,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -993,9 +1018,9 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1007,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -1037,9 +1062,9 @@
         <v>0.26090000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1051,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1077,13 +1102,19 @@
       <c r="M14">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>0.82609999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <v>0.47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1095,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1125,9 +1156,9 @@
         <v>0.56520000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1139,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>100</v>

--- a/ExperimentosGissella.xlsx
+++ b/ExperimentosGissella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gissella_BejaranoNic\Documents\PeruvianSignLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF60191-A213-4179-8C02-E6C254571623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003E41B-D0FF-474E-892F-8B90C1FFD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B664CC47-0CDC-4C29-8327-B2D4CD6615DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
   <si>
     <t>10nouns</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Analysis by sign and by subject</t>
+  </si>
+  <si>
+    <t>Por el desbalance de clases</t>
   </si>
 </sst>
 </file>
@@ -461,15 +464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E7DA79-1D56-4C42-82B7-A2573CE01401}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
@@ -800,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -812,7 +816,7 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -824,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.51459999999999995</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="L8">
         <v>0.8901</v>
       </c>
       <c r="M8">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.6522</v>
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.69569999999999999</v>
       </c>
       <c r="O8">
-        <v>0.37</v>
+        <v>0.26860000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -847,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -859,7 +863,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -871,17 +875,20 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.272</v>
+        <v>1.268</v>
       </c>
       <c r="L9">
-        <v>0.6593</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="M9">
-        <v>1.3959999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="N9">
         <v>0.56520000000000004</v>
       </c>
+      <c r="O9">
+        <v>0.29849999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -891,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -903,7 +910,7 @@
         <v>100</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -915,16 +922,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.54</v>
+        <v>1.5350999999999999</v>
       </c>
       <c r="L10">
-        <v>0.3407</v>
+        <v>0.37359999999999999</v>
       </c>
       <c r="M10">
-        <v>1.5720000000000001</v>
+        <v>1.5664</v>
       </c>
       <c r="N10">
-        <v>0.30430000000000001</v>
+        <v>0.3478</v>
+      </c>
+      <c r="O10">
+        <v>0.32829999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -935,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -959,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.43049999999999999</v>
+        <v>0.51459999999999995</v>
       </c>
       <c r="L11">
-        <v>0.91210000000000002</v>
+        <v>0.8901</v>
       </c>
       <c r="M11">
-        <v>0.83130000000000004</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>0.69569999999999999</v>
+        <v>0.6522</v>
       </c>
       <c r="O11">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -982,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1006,16 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.2509999999999999</v>
+        <v>1.272</v>
       </c>
       <c r="L12">
-        <v>0.67030000000000001</v>
+        <v>0.6593</v>
       </c>
       <c r="M12">
-        <v>1.345</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="N12">
-        <v>0.52170000000000005</v>
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.62268000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -1026,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1050,16 +1063,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.5620000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="L13">
-        <v>0.35160000000000002</v>
+        <v>0.3407</v>
       </c>
       <c r="M13">
-        <v>1.552</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="N13">
-        <v>0.26090000000000002</v>
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.52229999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1070,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1094,22 +1110,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.31619999999999998</v>
-      </c>
-      <c r="L14">
-        <v>0.94510000000000005</v>
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.91210000000000002</v>
       </c>
       <c r="M14">
-        <v>0.66900000000000004</v>
+        <v>0.80479999999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>0.82609999999999995</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="O14">
-        <v>0.47</v>
-      </c>
-      <c r="P14" t="s">
-        <v>22</v>
+        <v>0.44019999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -1120,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1144,17 +1157,20 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.2030000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="L15">
         <v>0.71430000000000005</v>
       </c>
       <c r="M15">
-        <v>1.304</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="N15">
         <v>0.56520000000000004</v>
       </c>
+      <c r="O15" s="1">
+        <v>0.67910000000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1164,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -1188,88 +1204,1147 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>1.56</v>
+      </c>
+      <c r="L16">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="M16">
+        <v>1.577</v>
+      </c>
+      <c r="N16">
+        <v>0.3478</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="L17">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="M18">
+        <v>1.345</v>
+      </c>
+      <c r="N18">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.6119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="M19">
+        <v>1.552</v>
+      </c>
+      <c r="N19">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="L20">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="M20">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="O20">
+        <v>0.47</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="M21">
+        <v>1.304</v>
+      </c>
+      <c r="N21">
+        <v>0.56520000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>1.556</v>
       </c>
-      <c r="L16">
+      <c r="L22">
         <v>0.3407</v>
       </c>
-      <c r="M16">
+      <c r="M22">
         <v>1.522</v>
       </c>
-      <c r="N16">
+      <c r="N22">
         <v>0.21740000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="L23">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="M23">
+        <v>1.216</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O23">
+        <v>0.18090000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
+      <c r="C24">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="M24">
+        <v>1.893</v>
+      </c>
+      <c r="N24">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
       <c r="J25">
         <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="L25">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="M25">
+        <v>2.165</v>
+      </c>
+      <c r="N25">
+        <v>0.25</v>
+      </c>
+      <c r="O25">
+        <v>0.16739999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="L26">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="M26">
+        <v>1.105</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O26">
+        <v>0.20810000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="M27">
+        <v>1.86</v>
+      </c>
+      <c r="N27">
+        <v>0.375</v>
+      </c>
+      <c r="O27">
+        <v>0.1764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2.15</v>
+      </c>
+      <c r="L28">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="M28">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.25</v>
+      </c>
+      <c r="O28">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.42120000000000002</v>
+      </c>
+      <c r="L29">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="M29">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="O29">
+        <v>0.19450000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1.786</v>
+      </c>
+      <c r="L30">
+        <v>0.434</v>
+      </c>
+      <c r="M30">
+        <v>1.901</v>
+      </c>
+      <c r="N30">
+        <v>0.3</v>
+      </c>
+      <c r="O30">
+        <v>0.19450000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>2.133</v>
+      </c>
+      <c r="L31">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="M31">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O31">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="L32">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="M32">
+        <v>1.21</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="O32">
+        <v>0.15379999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>58</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.4214</v>
+      </c>
+      <c r="M33">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.375</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.22170000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="M34">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="N34">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O34">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="L35">
+        <v>0.8679</v>
+      </c>
+      <c r="M35">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="O35">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1.827</v>
+      </c>
+      <c r="L36">
+        <v>0.434</v>
+      </c>
+      <c r="M36">
+        <v>1.91</v>
+      </c>
+      <c r="N36">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="L37">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="M37">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.20810000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.5514</v>
+      </c>
+      <c r="L38">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="M38">
+        <v>1.175</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="O38">
+        <v>0.1855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1.833</v>
+      </c>
+      <c r="L39">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="M39">
+        <v>1.91</v>
+      </c>
+      <c r="N39">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.19450000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="M40">
+        <v>2.121</v>
+      </c>
+      <c r="N40">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O40">
+        <v>0.14019999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentosGissella.xlsx
+++ b/ExperimentosGissella.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gissella_BejaranoNic\Documents\PeruvianSignLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C003E41B-D0FF-474E-892F-8B90C1FFD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF88E4D-437B-4E11-9B0B-7D8988D4C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B664CC47-0CDC-4C29-8327-B2D4CD6615DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="33">
   <si>
     <t>10nouns</t>
   </si>
@@ -106,13 +109,40 @@
   </si>
   <si>
     <t>Por el desbalance de clases</t>
+  </si>
+  <si>
+    <t>IA-PUCP</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Larger than 0.48</t>
+  </si>
+  <si>
+    <t>Validated Test</t>
+  </si>
+  <si>
+    <t>Larger than 0.20</t>
+  </si>
+  <si>
+    <t>Larger than 0.09</t>
+  </si>
+  <si>
+    <t>Larger than 0.29</t>
+  </si>
+  <si>
+    <t>Larger than 0.51</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +150,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,9 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,22 +509,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E7DA79-1D56-4C42-82B7-A2573CE01401}">
-  <dimension ref="A1:P40"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -528,8 +580,11 @@
       <c r="P1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -573,7 +628,7 @@
         <v>0.52170000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -617,7 +672,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -661,7 +716,7 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -708,7 +763,7 @@
         <v>0.23880000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -751,8 +806,11 @@
       <c r="N6">
         <v>0.52170000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -796,7 +854,7 @@
         <v>0.30430000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -836,14 +894,14 @@
       <c r="M8">
         <v>0.86770000000000003</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0.69569999999999999</v>
       </c>
       <c r="O8">
         <v>0.26860000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -890,7 +948,7 @@
         <v>0.29849999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -937,7 +995,7 @@
         <v>0.32829999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -983,8 +1041,11 @@
       <c r="O11">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1030,8 +1091,11 @@
       <c r="O12" s="1">
         <v>0.62268000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>0.641791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1142,7 @@
         <v>0.52229999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1124,8 +1188,11 @@
       <c r="O14">
         <v>0.44019999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1171,8 +1238,11 @@
       <c r="O15" s="1">
         <v>0.67910000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <v>0.63429999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1219,7 +1289,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1229,16 +1299,16 @@
       <c r="C17">
         <v>36</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>2</v>
       </c>
       <c r="H17">
@@ -1265,8 +1335,11 @@
       <c r="O17">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1276,16 +1349,16 @@
       <c r="C18">
         <v>37</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>2</v>
       </c>
       <c r="H18">
@@ -1312,8 +1385,11 @@
       <c r="O18" s="1">
         <v>0.6119</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1323,16 +1399,16 @@
       <c r="C19">
         <v>38</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
       <c r="H19">
@@ -1363,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1373,16 +1449,16 @@
       <c r="C20">
         <v>39</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20">
@@ -1412,8 +1488,11 @@
       <c r="P20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1423,16 +1502,16 @@
       <c r="C21">
         <v>40</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21">
@@ -1456,8 +1535,14 @@
       <c r="N21">
         <v>0.56520000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O21" s="1">
+        <v>0.6119</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1467,16 +1552,16 @@
       <c r="C22">
         <v>41</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22">
@@ -1500,8 +1585,11 @@
       <c r="N22">
         <v>0.21740000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O22" s="1">
+        <v>0.71640000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +1636,7 @@
         <v>0.18090000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1683,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +1730,7 @@
         <v>0.16739999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1689,7 +1777,7 @@
         <v>0.20810000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1824,7 @@
         <v>0.1764</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1871,7 @@
         <v>0.1719</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1830,7 +1918,7 @@
         <v>0.19450000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1965,7 @@
         <v>0.19450000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1924,7 +2012,7 @@
         <v>0.1719</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1971,7 +2059,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2106,7 @@
         <v>0.22170000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2153,7 @@
         <v>0.1719</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +2200,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2159,7 +2247,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2206,7 +2294,7 @@
         <v>0.20810000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2253,7 +2341,7 @@
         <v>0.1855</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2300,7 +2388,7 @@
         <v>0.19450000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2347,7 +2435,702 @@
         <v>0.14019999999999999</v>
       </c>
     </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="M41">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="O41">
+        <v>0.194570135746606</v>
+      </c>
+      <c r="P41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1.78</v>
+      </c>
+      <c r="L42">
+        <v>0.434</v>
+      </c>
+      <c r="M42">
+        <v>1.853</v>
+      </c>
+      <c r="N42">
+        <v>0.375</v>
+      </c>
+      <c r="O42">
+        <v>0.167420814479638</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="M43">
+        <v>2.08</v>
+      </c>
+      <c r="N43">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="O43">
+        <v>0.16289592760180899</v>
+      </c>
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="L44">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="M44">
+        <v>1.198</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="O44">
+        <v>0.131221719457013</v>
+      </c>
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1.784</v>
+      </c>
+      <c r="L45">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="M45">
+        <v>1.863</v>
+      </c>
+      <c r="N45">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.194570135746606</v>
+      </c>
+      <c r="P45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="M46">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="N46">
+        <v>0.35</v>
+      </c>
+      <c r="O46">
+        <v>0.217194570135746</v>
+      </c>
+      <c r="P46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="L47">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="M47">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="O47">
+        <v>0.41791044776119401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1.119</v>
+      </c>
+      <c r="L48">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="M48">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="O48">
+        <v>0.48507462686567099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="L49">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="M49">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="O49">
+        <v>0.29850746268656703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1.175</v>
+      </c>
+      <c r="L50">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="M50">
+        <v>1.262</v>
+      </c>
+      <c r="N50">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.51492537313432796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="L51">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="M51">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="O51">
+        <v>0.201492537313432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="M52">
+        <v>1.302</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.63432835820895495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="L53">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="M53">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="O53">
+        <v>9.7014925373134303E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1.232</v>
+      </c>
+      <c r="L54">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="M54">
+        <v>1.349</v>
+      </c>
+      <c r="N54">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.64179104477611904</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:P54" xr:uid="{98E7DA79-1D56-4C42-82B7-A2573CE01401}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="5verbs"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="10"/>
+        <filter val="15"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="100"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>